--- a/StructureDefinition-pmi-research-subject.xlsx
+++ b/StructureDefinition-pmi-research-subject.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T16:50:37+00:00</t>
+    <t>2022-03-30T19:50:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pmi-research-subject.xlsx
+++ b/StructureDefinition-pmi-research-subject.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T19:50:20+00:00</t>
+    <t>2022-03-30T19:52:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pmi-research-subject.xlsx
+++ b/StructureDefinition-pmi-research-subject.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T19:52:30+00:00</t>
+    <t>2022-03-30T19:57:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pmi-research-subject.xlsx
+++ b/StructureDefinition-pmi-research-subject.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T19:57:14+00:00</t>
+    <t>2022-03-30T19:59:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pmi-research-subject.xlsx
+++ b/StructureDefinition-pmi-research-subject.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T19:59:56+00:00</t>
+    <t>2022-03-30T20:37:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pmi-research-subject.xlsx
+++ b/StructureDefinition-pmi-research-subject.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T20:37:56+00:00</t>
+    <t>2022-03-30T20:40:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
